--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/INVENTARIO HERRADURA FEBRERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/INVENTARIO HERRADURA FEBRERO 2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capturas\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL   ARCHIVO   2 0 2 3\CENTRAL #02  FEBRERO 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="6135" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23550" windowHeight="11670" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RES" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SALCHI!$A$3:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VARIOS!$A$2:$H$32</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
